--- a/artfynd/A 6819-2026 artfynd.xlsx
+++ b/artfynd/A 6819-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1522,6 +1522,225 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131157730</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Valmyran, Valmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>715048</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7090771</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På sälg</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131159001</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Valmyran, Valmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>714973</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7090850</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Anne Siivola</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6819-2026 artfynd.xlsx
+++ b/artfynd/A 6819-2026 artfynd.xlsx
@@ -1527,7 +1527,7 @@
         <v>131157730</v>
       </c>
       <c r="B9" t="n">
-        <v>79245</v>
+        <v>79246</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>131159001</v>
       </c>
       <c r="B10" t="n">
-        <v>79245</v>
+        <v>79246</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
